--- a/FileStructure/ReplacementSelection/ReplacementSelection.xlsx
+++ b/FileStructure/ReplacementSelection/ReplacementSelection.xlsx
@@ -8,17 +8,55 @@
   </bookViews>
   <sheets>
     <sheet name="File" sheetId="2" r:id="rId1"/>
+    <sheet name="Run42014-04-08 22.27.34" r:id="rId5" sheetId="3"/>
+    <sheet name="Run52014-04-08 22.27.34" r:id="rId6" sheetId="4"/>
+    <sheet name="Run62014-04-08 22.27.35" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+  <si>
+    <t>Create Run 4</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>Run 5</t>
+  </si>
+  <si>
+    <t>Run 6</t>
+  </si>
+  <si>
+    <t>Run 7</t>
+  </si>
+  <si>
+    <t>Create Run 5</t>
+  </si>
+  <si>
+    <t>Create Run 6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -368,18 +406,17 @@
   <dimension ref="A1:AZ1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="4.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="27" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="52" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="4.125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="3.125" collapsed="true"/>
+    <col min="7" max="27" bestFit="true" customWidth="true" width="4.125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="3.125" collapsed="true"/>
+    <col min="29" max="52" bestFit="true" customWidth="true" width="4.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
@@ -545,4 +582,616 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="17" fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>